--- a/predictions/Прогнозы_ETS_HA4dt.xlsx
+++ b/predictions/Прогнозы_ETS_HA4dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18303597.38223499</v>
+        <v>17760870.4960786</v>
       </c>
       <c r="C2" t="n">
-        <v>18584538.04952477</v>
+        <v>17541368.99730602</v>
       </c>
       <c r="D2" t="n">
-        <v>18907117.25101519</v>
+        <v>17134762.65885355</v>
       </c>
       <c r="E2" t="n">
-        <v>18742738.7246693</v>
+        <v>15378570.02247736</v>
       </c>
       <c r="F2" t="n">
-        <v>17578397.96480824</v>
+        <v>15539538.65181404</v>
       </c>
       <c r="G2" t="n">
-        <v>17892247.30263285</v>
+        <v>15364471.41804141</v>
       </c>
       <c r="H2" t="n">
-        <v>18246241.81907846</v>
+        <v>15001410.50670038</v>
       </c>
       <c r="I2" t="n">
-        <v>18111853.01877419</v>
+        <v>13287892.23935722</v>
       </c>
       <c r="J2" t="n">
-        <v>16976141.08753809</v>
+        <v>13490681.60380131</v>
       </c>
       <c r="K2" t="n">
-        <v>17317320.11244622</v>
+        <v>13356598.54682038</v>
       </c>
       <c r="L2" t="n">
-        <v>17697404.12790233</v>
+        <v>13033701.98799444</v>
       </c>
       <c r="M2" t="n">
-        <v>17587920.91676704</v>
+        <v>11359544.64819057</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15315078.53378392</v>
+        <v>13746701.00717136</v>
       </c>
       <c r="C3" t="n">
-        <v>16122680.59779154</v>
+        <v>13786073.22902762</v>
       </c>
       <c r="D3" t="n">
-        <v>16915749.77670456</v>
+        <v>13819515.4158179</v>
       </c>
       <c r="E3" t="n">
-        <v>17690945.35857975</v>
+        <v>13850006.24517006</v>
       </c>
       <c r="F3" t="n">
-        <v>18451964.61638067</v>
+        <v>13877532.37094443</v>
       </c>
       <c r="G3" t="n">
-        <v>19196785.02024714</v>
+        <v>13903246.68794151</v>
       </c>
       <c r="H3" t="n">
-        <v>19928329.05160706</v>
+        <v>13924456.76228019</v>
       </c>
       <c r="I3" t="n">
-        <v>20643230.85066543</v>
+        <v>13943992.42855492</v>
       </c>
       <c r="J3" t="n">
-        <v>21345163.0458433</v>
+        <v>13961707.0357933</v>
       </c>
       <c r="K3" t="n">
-        <v>22032078.95597404</v>
+        <v>13978634.09008131</v>
       </c>
       <c r="L3" t="n">
-        <v>22706877.39454351</v>
+        <v>13991974.2321934</v>
       </c>
       <c r="M3" t="n">
-        <v>23366169.30750503</v>
+        <v>14004461.53365855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25903855.91617935</v>
+        <v>62007555.11650623</v>
       </c>
       <c r="C4" t="n">
-        <v>28198318.43750285</v>
+        <v>70448069.12803614</v>
       </c>
       <c r="D4" t="n">
-        <v>30101223.34577881</v>
+        <v>79325876.16257197</v>
       </c>
       <c r="E4" t="n">
-        <v>32009567.13723207</v>
+        <v>87619857.65969057</v>
       </c>
       <c r="F4" t="n">
-        <v>33519696.93718196</v>
+        <v>95829871.82044239</v>
       </c>
       <c r="G4" t="n">
-        <v>34976920.93545564</v>
+        <v>103593845.5065653</v>
       </c>
       <c r="H4" t="n">
-        <v>36134628.15275083</v>
+        <v>111808644.9022901</v>
       </c>
       <c r="I4" t="n">
-        <v>37379696.68469954</v>
+        <v>119452880.7558547</v>
       </c>
       <c r="J4" t="n">
-        <v>38299467.61049374</v>
+        <v>127026145.9915495</v>
       </c>
       <c r="K4" t="n">
-        <v>39231233.14291914</v>
+        <v>134166107.5006252</v>
       </c>
       <c r="L4" t="n">
-        <v>39921247.55263775</v>
+        <v>141769376.6969571</v>
       </c>
       <c r="M4" t="n">
-        <v>40750038.53559741</v>
+        <v>148814314.6545429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22392911.06194521</v>
+        <v>30357285.54420101</v>
       </c>
       <c r="C5" t="n">
-        <v>21825071.84074901</v>
+        <v>31778757.85588831</v>
       </c>
       <c r="D5" t="n">
-        <v>23452469.26030822</v>
+        <v>36919989.71938596</v>
       </c>
       <c r="E5" t="n">
-        <v>29301383.24288651</v>
+        <v>29634244.83789946</v>
       </c>
       <c r="F5" t="n">
-        <v>31827695.5337487</v>
+        <v>34713773.08131133</v>
       </c>
       <c r="G5" t="n">
-        <v>31071080.76045612</v>
+        <v>36048114.74153652</v>
       </c>
       <c r="H5" t="n">
-        <v>32513479.7368901</v>
+        <v>41103958.5846159</v>
       </c>
       <c r="I5" t="n">
-        <v>38181096.81116278</v>
+        <v>33734533.46077377</v>
       </c>
       <c r="J5" t="n">
-        <v>40529739.66651018</v>
+        <v>38732055.08397833</v>
       </c>
       <c r="K5" t="n">
-        <v>39599010.35033233</v>
+        <v>39986030.27335553</v>
       </c>
       <c r="L5" t="n">
-        <v>40870778.54856686</v>
+        <v>44963114.99161994</v>
       </c>
       <c r="M5" t="n">
-        <v>46371178.90454315</v>
+        <v>37516505.94174289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11502238.78606582</v>
+        <v>422364.8574694049</v>
       </c>
       <c r="C6" t="n">
-        <v>13248212.42915034</v>
+        <v>1215329.413860528</v>
       </c>
       <c r="D6" t="n">
-        <v>13504726.84233034</v>
+        <v>554567.3964436189</v>
       </c>
       <c r="E6" t="n">
-        <v>14888035.0040481</v>
+        <v>1457858.30728552</v>
       </c>
       <c r="F6" t="n">
-        <v>13428303.60612025</v>
+        <v>415499.6752742825</v>
       </c>
       <c r="G6" t="n">
-        <v>15135747.98225885</v>
+        <v>1208612.652648465</v>
       </c>
       <c r="H6" t="n">
-        <v>15354503.87327574</v>
+        <v>547995.8474449739</v>
       </c>
       <c r="I6" t="n">
-        <v>16700808.83952799</v>
+        <v>1451428.831102262</v>
       </c>
       <c r="J6" t="n">
-        <v>15204814.46317255</v>
+        <v>409209.2003802184</v>
       </c>
       <c r="K6" t="n">
-        <v>16876721.27051752</v>
+        <v>1202458.173921895</v>
       </c>
       <c r="L6" t="n">
-        <v>17060650.49118012</v>
+        <v>541974.4247330672</v>
       </c>
       <c r="M6" t="n">
-        <v>18372825.46460677</v>
+        <v>1445537.587816468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2100622.600715316</v>
+        <v>13614256.27805657</v>
       </c>
       <c r="C7" t="n">
-        <v>2889366.973411645</v>
+        <v>14162767.62055893</v>
       </c>
       <c r="D7" t="n">
-        <v>2797523.293061665</v>
+        <v>13855542.40633864</v>
       </c>
       <c r="E7" t="n">
-        <v>3301638.51495217</v>
+        <v>13786229.33393536</v>
       </c>
       <c r="F7" t="n">
-        <v>2178397.08502633</v>
+        <v>14849462.5376562</v>
       </c>
       <c r="G7" t="n">
-        <v>2965430.03295176</v>
+        <v>15373264.32619438</v>
       </c>
       <c r="H7" t="n">
-        <v>2871912.587672311</v>
+        <v>15041823.8576885</v>
       </c>
       <c r="I7" t="n">
-        <v>3374390.8757713</v>
+        <v>14948779.94251218</v>
       </c>
       <c r="J7" t="n">
-        <v>2249548.532724014</v>
+        <v>15988757.02461328</v>
       </c>
       <c r="K7" t="n">
-        <v>3035015.795564497</v>
+        <v>16489767.91617552</v>
       </c>
       <c r="L7" t="n">
-        <v>2939967.118044908</v>
+        <v>16135992.46879997</v>
       </c>
       <c r="M7" t="n">
-        <v>3440947.868614933</v>
+        <v>16021060.37249435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359717.524410163</v>
+        <v>18281338.17373702</v>
       </c>
       <c r="C8" t="n">
-        <v>1599277.993897195</v>
+        <v>19996976.1541049</v>
       </c>
       <c r="D8" t="n">
-        <v>1848773.814165567</v>
+        <v>20239563.79593689</v>
       </c>
       <c r="E8" t="n">
-        <v>1549739.179931936</v>
+        <v>17304028.48201402</v>
       </c>
       <c r="F8" t="n">
-        <v>1403109.558293171</v>
+        <v>18290359.96478904</v>
       </c>
       <c r="G8" t="n">
-        <v>1641265.882224569</v>
+        <v>20005042.68621679</v>
       </c>
       <c r="H8" t="n">
-        <v>1889402.994418913</v>
+        <v>20246776.2152821</v>
       </c>
       <c r="I8" t="n">
-        <v>1589053.61925759</v>
+        <v>17310477.22505375</v>
       </c>
       <c r="J8" t="n">
-        <v>1441151.801081549</v>
+        <v>18296125.89225414</v>
       </c>
       <c r="K8" t="n">
-        <v>1678077.096149869</v>
+        <v>20010198.09701979</v>
       </c>
       <c r="L8" t="n">
-        <v>1925023.014988999</v>
+        <v>20251385.75307261</v>
       </c>
       <c r="M8" t="n">
-        <v>1623520.992922258</v>
+        <v>17314598.68878458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11763271.98829335</v>
+        <v>31958798.01448205</v>
       </c>
       <c r="C9" t="n">
-        <v>14277452.68049429</v>
+        <v>30760786.31781121</v>
       </c>
       <c r="D9" t="n">
-        <v>16577746.82765124</v>
+        <v>34015722.59159039</v>
       </c>
       <c r="E9" t="n">
-        <v>18682806.68171976</v>
+        <v>31604199.70748447</v>
       </c>
       <c r="F9" t="n">
-        <v>20608742.22945747</v>
+        <v>34345212.08321175</v>
       </c>
       <c r="G9" t="n">
-        <v>22371389.60828641</v>
+        <v>33099470.55071073</v>
       </c>
       <c r="H9" t="n">
-        <v>23984002.59528755</v>
+        <v>36307631.61646646</v>
       </c>
       <c r="I9" t="n">
-        <v>25459808.40350224</v>
+        <v>33850269.05896586</v>
       </c>
       <c r="J9" t="n">
-        <v>26809952.90567214</v>
+        <v>36546358.58462527</v>
       </c>
       <c r="K9" t="n">
-        <v>28045729.88876732</v>
+        <v>35256592.68831946</v>
       </c>
       <c r="L9" t="n">
-        <v>29176236.70889171</v>
+        <v>38421609.90622295</v>
       </c>
       <c r="M9" t="n">
-        <v>30210897.29804946</v>
+        <v>35921966.40593009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6519257.441972115</v>
+        <v>15146792.25937848</v>
       </c>
       <c r="C10" t="n">
-        <v>6908055.136017908</v>
+        <v>15152110.53035877</v>
       </c>
       <c r="D10" t="n">
-        <v>8271825.629956694</v>
+        <v>15154616.8686077</v>
       </c>
       <c r="E10" t="n">
-        <v>11332105.54699517</v>
+        <v>15156906.23059346</v>
       </c>
       <c r="F10" t="n">
-        <v>8532218.735932557</v>
+        <v>15161700.77415138</v>
       </c>
       <c r="G10" t="n">
-        <v>8880734.311931843</v>
+        <v>15166703.07267837</v>
       </c>
       <c r="H10" t="n">
-        <v>10205028.78828874</v>
+        <v>15168900.13522367</v>
       </c>
       <c r="I10" t="n">
-        <v>13226622.65703336</v>
+        <v>15170886.77632392</v>
       </c>
       <c r="J10" t="n">
-        <v>10388823.95859534</v>
+        <v>15175385.01489102</v>
       </c>
       <c r="K10" t="n">
-        <v>10700186.31611524</v>
+        <v>15180097.28834282</v>
       </c>
       <c r="L10" t="n">
-        <v>11988071.06088297</v>
+        <v>15182010.47263144</v>
       </c>
       <c r="M10" t="n">
-        <v>14973983.80673564</v>
+        <v>15183719.25201727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1376352.854491682</v>
+        <v>22065756.66844362</v>
       </c>
       <c r="C11" t="n">
-        <v>201883.8633094188</v>
+        <v>21195731.95382323</v>
       </c>
       <c r="D11" t="n">
-        <v>867807.2619138388</v>
+        <v>21749098.34342347</v>
       </c>
       <c r="E11" t="n">
-        <v>345506.8967999204</v>
+        <v>19937717.59158973</v>
       </c>
       <c r="F11" t="n">
-        <v>1375620.771027992</v>
+        <v>24135305.23533513</v>
       </c>
       <c r="G11" t="n">
-        <v>201291.1286258058</v>
+        <v>23223883.86015448</v>
       </c>
       <c r="H11" t="n">
-        <v>867327.3515995326</v>
+        <v>23736681.63620576</v>
       </c>
       <c r="I11" t="n">
-        <v>345118.3352459149</v>
+        <v>21885543.75461782</v>
       </c>
       <c r="J11" t="n">
-        <v>1375306.170410438</v>
+        <v>26044169.52049708</v>
       </c>
       <c r="K11" t="n">
-        <v>201036.410814574</v>
+        <v>25094565.61211446</v>
       </c>
       <c r="L11" t="n">
-        <v>867121.1181729638</v>
+        <v>25569944.61059219</v>
       </c>
       <c r="M11" t="n">
-        <v>344951.3574204201</v>
+        <v>23682136.42984701</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600176.511581849</v>
+        <v>44306217.68281236</v>
       </c>
       <c r="C12" t="n">
-        <v>650370.8807216305</v>
+        <v>45958734.50941861</v>
       </c>
       <c r="D12" t="n">
-        <v>747587.5581513001</v>
+        <v>42030917.45134179</v>
       </c>
       <c r="E12" t="n">
-        <v>546591.7658797542</v>
+        <v>39565845.88323544</v>
       </c>
       <c r="F12" t="n">
-        <v>568797.0138022073</v>
+        <v>44626757.90619279</v>
       </c>
       <c r="G12" t="n">
-        <v>619619.4062009673</v>
+        <v>46263623.60494573</v>
       </c>
       <c r="H12" t="n">
-        <v>717451.5377523847</v>
+        <v>42320919.62202419</v>
       </c>
       <c r="I12" t="n">
-        <v>517058.8820216614</v>
+        <v>39841688.01807828</v>
       </c>
       <c r="J12" t="n">
-        <v>539855.1954257176</v>
+        <v>44889131.40214149</v>
       </c>
       <c r="K12" t="n">
-        <v>591256.8238347288</v>
+        <v>46513186.09986901</v>
       </c>
       <c r="L12" t="n">
-        <v>689656.5986778194</v>
+        <v>42558296.64308013</v>
       </c>
       <c r="M12" t="n">
-        <v>489820.2255346409</v>
+        <v>40067474.54959501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3239485.430313098</v>
+        <v>40166547.39229503</v>
       </c>
       <c r="C13" t="n">
-        <v>3582960.631257235</v>
+        <v>37736385.8811674</v>
       </c>
       <c r="D13" t="n">
-        <v>3919718.116073249</v>
+        <v>40308639.52433679</v>
       </c>
       <c r="E13" t="n">
-        <v>4249511.346250275</v>
+        <v>32157533.88610471</v>
       </c>
       <c r="F13" t="n">
-        <v>4572919.960992127</v>
+        <v>40189416.41111257</v>
       </c>
       <c r="G13" t="n">
-        <v>4889725.206648174</v>
+        <v>37757007.92964448</v>
       </c>
       <c r="H13" t="n">
-        <v>5200346.160576548</v>
+        <v>40327235.3760777</v>
       </c>
       <c r="I13" t="n">
-        <v>5504525.615272461</v>
+        <v>32174302.6228456</v>
       </c>
       <c r="J13" t="n">
-        <v>5802832.754335795</v>
+        <v>40204537.55403212</v>
       </c>
       <c r="K13" t="n">
-        <v>6095038.577633983</v>
+        <v>37770643.36126504</v>
       </c>
       <c r="L13" t="n">
-        <v>6381552.120982584</v>
+        <v>40339531.07333208</v>
       </c>
       <c r="M13" t="n">
-        <v>6662106.336174604</v>
+        <v>32185390.21986331</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-468865.3418690501</v>
+        <v>1080477.592379991</v>
       </c>
       <c r="C14" t="n">
-        <v>130272.9937856911</v>
+        <v>1180362.63277862</v>
       </c>
       <c r="D14" t="n">
-        <v>379869.5358178647</v>
+        <v>1075593.562621966</v>
       </c>
       <c r="E14" t="n">
-        <v>7885.158742053869</v>
+        <v>900143.2163503086</v>
       </c>
       <c r="F14" t="n">
-        <v>-464886.8693685402</v>
+        <v>1014994.900923482</v>
       </c>
       <c r="G14" t="n">
-        <v>134031.9561928845</v>
+        <v>1127976.009232921</v>
       </c>
       <c r="H14" t="n">
-        <v>383421.0994837898</v>
+        <v>1033683.887477634</v>
       </c>
       <c r="I14" t="n">
-        <v>11240.76678138441</v>
+        <v>866615.1751859217</v>
       </c>
       <c r="J14" t="n">
-        <v>-461716.4052088652</v>
+        <v>988172.2271506733</v>
       </c>
       <c r="K14" t="n">
-        <v>137027.4916874858</v>
+        <v>1106517.677539904</v>
       </c>
       <c r="L14" t="n">
-        <v>386251.3579088956</v>
+        <v>1016517.067982021</v>
       </c>
       <c r="M14" t="n">
-        <v>13914.86721094663</v>
+        <v>852881.596275364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>992431.6785537723</v>
+        <v>4766434.134293146</v>
       </c>
       <c r="C15" t="n">
-        <v>954923.3743349654</v>
+        <v>4783854.234690691</v>
       </c>
       <c r="D15" t="n">
-        <v>919436.0168574126</v>
+        <v>5279484.478202661</v>
       </c>
       <c r="E15" t="n">
-        <v>1570411.338609723</v>
+        <v>5111277.111502706</v>
       </c>
       <c r="F15" t="n">
-        <v>1169139.349526897</v>
+        <v>5228796.94567577</v>
       </c>
       <c r="G15" t="n">
-        <v>1128096.550497614</v>
+        <v>5236969.767438539</v>
       </c>
       <c r="H15" t="n">
-        <v>1089145.394934274</v>
+        <v>5723537.678336573</v>
       </c>
       <c r="I15" t="n">
-        <v>1736726.201254409</v>
+        <v>5546449.226114142</v>
       </c>
       <c r="J15" t="n">
-        <v>1332127.593606099</v>
+        <v>5655265.596905576</v>
       </c>
       <c r="K15" t="n">
-        <v>1287824.714809512</v>
+        <v>5654909.024976138</v>
       </c>
       <c r="L15" t="n">
-        <v>1245678.687372539</v>
+        <v>6133118.13046916</v>
       </c>
       <c r="M15" t="n">
-        <v>1890128.525428858</v>
+        <v>5947838.049354904</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1688278.281347952</v>
+        <v>9860997.63201979</v>
       </c>
       <c r="C16" t="n">
-        <v>1759768.087372055</v>
+        <v>9707154.866670892</v>
       </c>
       <c r="D16" t="n">
-        <v>1827802.638588008</v>
+        <v>10013949.31916213</v>
       </c>
       <c r="E16" t="n">
-        <v>1892930.176216479</v>
+        <v>9786194.612592047</v>
       </c>
       <c r="F16" t="n">
-        <v>1954846.995205753</v>
+        <v>10090708.91088686</v>
       </c>
       <c r="G16" t="n">
-        <v>2014180.09533371</v>
+        <v>9932270.709636025</v>
       </c>
       <c r="H16" t="n">
-        <v>2070612.339915555</v>
+        <v>10234561.65915624</v>
       </c>
       <c r="I16" t="n">
-        <v>2124666.687126995</v>
+        <v>10002393.54340304</v>
       </c>
       <c r="J16" t="n">
-        <v>2176015.301889419</v>
+        <v>10302582.72395218</v>
       </c>
       <c r="K16" t="n">
-        <v>2225262.154389169</v>
+        <v>10139905.93009918</v>
       </c>
       <c r="L16" t="n">
-        <v>2272068.128600595</v>
+        <v>10438043.08120197</v>
       </c>
       <c r="M16" t="n">
-        <v>2316935.205713164</v>
+        <v>10201804.26488562</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6267312.163069152</v>
+        <v>5520927.928540404</v>
       </c>
       <c r="C17" t="n">
-        <v>6336378.478218372</v>
+        <v>5527077.983756272</v>
       </c>
       <c r="D17" t="n">
-        <v>6404709.376531468</v>
+        <v>7056219.173669129</v>
       </c>
       <c r="E17" t="n">
-        <v>6471792.420819798</v>
+        <v>4281071.292494066</v>
       </c>
       <c r="F17" t="n">
-        <v>6537254.45384012</v>
+        <v>5804943.617740226</v>
       </c>
       <c r="G17" t="n">
-        <v>6600907.651842632</v>
+        <v>5805412.092021974</v>
       </c>
       <c r="H17" t="n">
-        <v>6663933.981533078</v>
+        <v>7328985.357968049</v>
       </c>
       <c r="I17" t="n">
-        <v>6725818.829013583</v>
+        <v>4548380.936147111</v>
       </c>
       <c r="J17" t="n">
-        <v>6786186.903980934</v>
+        <v>6066905.875904939</v>
       </c>
       <c r="K17" t="n">
-        <v>6844848.292399329</v>
+        <v>6062133.936265749</v>
       </c>
       <c r="L17" t="n">
-        <v>6902982.912604742</v>
+        <v>7580571.619949671</v>
       </c>
       <c r="M17" t="n">
-        <v>6960074.143405214</v>
+        <v>4794934.35042448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>329280.6683517126</v>
+        <v>3567993.674330116</v>
       </c>
       <c r="C18" t="n">
-        <v>362341.5791388939</v>
+        <v>3287422.136945795</v>
       </c>
       <c r="D18" t="n">
-        <v>372868.6727645811</v>
+        <v>3327078.946694147</v>
       </c>
       <c r="E18" t="n">
-        <v>322189.6689737191</v>
+        <v>3533918.87644526</v>
       </c>
       <c r="F18" t="n">
-        <v>-55651.75569983035</v>
+        <v>3622567.74524774</v>
       </c>
       <c r="G18" t="n">
-        <v>-14885.28512903711</v>
+        <v>3340033.710132885</v>
       </c>
       <c r="H18" t="n">
-        <v>3193.118734448712</v>
+        <v>3377798.594077582</v>
       </c>
       <c r="I18" t="n">
-        <v>-40085.73660402506</v>
+        <v>3582814.632167146</v>
       </c>
       <c r="J18" t="n">
-        <v>-410675.148660841</v>
+        <v>3669705.196924802</v>
       </c>
       <c r="K18" t="n">
-        <v>-362801.8359325383</v>
+        <v>3385476.086834157</v>
       </c>
       <c r="L18" t="n">
-        <v>-337758.8543551068</v>
+        <v>3421606.851138395</v>
       </c>
       <c r="M18" t="n">
-        <v>-374212.5485800281</v>
+        <v>3625047.532953176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21051.08667539195</v>
+        <v>6209825.833118178</v>
       </c>
       <c r="C19" t="n">
-        <v>-54305.5386865713</v>
+        <v>5428314.132517401</v>
       </c>
       <c r="D19" t="n">
-        <v>1344.51703231713</v>
+        <v>5865654.194093958</v>
       </c>
       <c r="E19" t="n">
-        <v>-22485.01313894628</v>
+        <v>4197310.896610417</v>
       </c>
       <c r="F19" t="n">
-        <v>33808.47460683767</v>
+        <v>6217909.175431335</v>
       </c>
       <c r="G19" t="n">
-        <v>-42711.05283841091</v>
+        <v>5435803.574421803</v>
       </c>
       <c r="H19" t="n">
-        <v>11882.1053541263</v>
+        <v>5872593.370719958</v>
       </c>
       <c r="I19" t="n">
-        <v>-12907.98065177075</v>
+        <v>4203740.237122227</v>
       </c>
       <c r="J19" t="n">
-        <v>42512.51090616695</v>
+        <v>6223866.138576202</v>
       </c>
       <c r="K19" t="n">
-        <v>-34800.43459612224</v>
+        <v>5441322.86677288</v>
       </c>
       <c r="L19" t="n">
-        <v>19071.6297107805</v>
+        <v>5877707.148884408</v>
       </c>
       <c r="M19" t="n">
-        <v>-6373.818732718333</v>
+        <v>4208478.295092667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2326614.798955273</v>
+        <v>2234663.53364154</v>
       </c>
       <c r="C20" t="n">
-        <v>2432718.660638832</v>
+        <v>1426762.817288332</v>
       </c>
       <c r="D20" t="n">
-        <v>2271931.575164097</v>
+        <v>783596.6551298855</v>
       </c>
       <c r="E20" t="n">
-        <v>2469394.801222425</v>
+        <v>733563.0275465965</v>
       </c>
       <c r="F20" t="n">
-        <v>2326949.694455142</v>
+        <v>1977966.350975718</v>
       </c>
       <c r="G20" t="n">
-        <v>2433001.775963394</v>
+        <v>1221404.884517953</v>
       </c>
       <c r="H20" t="n">
-        <v>2272170.916352716</v>
+        <v>619310.1596032702</v>
       </c>
       <c r="I20" t="n">
-        <v>2469597.136453336</v>
+        <v>602133.7116769454</v>
       </c>
       <c r="J20" t="n">
-        <v>2327120.745438485</v>
+        <v>1872822.802721224</v>
       </c>
       <c r="K20" t="n">
-        <v>2433146.379741841</v>
+        <v>1137289.969467269</v>
       </c>
       <c r="L20" t="n">
-        <v>2272293.162085143</v>
+        <v>552018.1664049963</v>
       </c>
       <c r="M20" t="n">
-        <v>2469700.481049563</v>
+        <v>548300.0681921009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1182151.826668296</v>
+        <v>3606570.165522341</v>
       </c>
       <c r="C21" t="n">
-        <v>1560271.285516375</v>
+        <v>3970721.46006654</v>
       </c>
       <c r="D21" t="n">
-        <v>1323249.594503694</v>
+        <v>4291155.241051487</v>
       </c>
       <c r="E21" t="n">
-        <v>1527141.746880271</v>
+        <v>3176771.391673321</v>
       </c>
       <c r="F21" t="n">
-        <v>1182432.727772882</v>
+        <v>3639268.306564755</v>
       </c>
       <c r="G21" t="n">
-        <v>1560527.55157644</v>
+        <v>4002765.274258389</v>
       </c>
       <c r="H21" t="n">
-        <v>1323483.386014191</v>
+        <v>4322557.822214429</v>
       </c>
       <c r="I21" t="n">
-        <v>1527355.034860608</v>
+        <v>3207545.571606808</v>
       </c>
       <c r="J21" t="n">
-        <v>1182627.310383942</v>
+        <v>3669426.660289391</v>
       </c>
       <c r="K21" t="n">
-        <v>1560705.069280285</v>
+        <v>4032320.12515437</v>
       </c>
       <c r="L21" t="n">
-        <v>1323645.335404255</v>
+        <v>4351521.247057149</v>
       </c>
       <c r="M21" t="n">
-        <v>1527502.781278989</v>
+        <v>3235929.405501702</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536558.3719001904</v>
+        <v>11830572.7738955</v>
       </c>
       <c r="C22" t="n">
-        <v>536591.3841424851</v>
+        <v>10925023.0270661</v>
       </c>
       <c r="D22" t="n">
-        <v>537090.6258377753</v>
+        <v>12149763.70608838</v>
       </c>
       <c r="E22" t="n">
-        <v>536832.8335326295</v>
+        <v>10482096.78517666</v>
       </c>
       <c r="F22" t="n">
-        <v>536616.4550462819</v>
+        <v>12007575.58688689</v>
       </c>
       <c r="G22" t="n">
-        <v>536648.2372129387</v>
+        <v>11094698.08407129</v>
       </c>
       <c r="H22" t="n">
-        <v>537146.2748829373</v>
+        <v>12312414.36956182</v>
       </c>
       <c r="I22" t="n">
-        <v>536887.3040511563</v>
+        <v>10638013.85864221</v>
       </c>
       <c r="J22" t="n">
-        <v>536669.7719968231</v>
+        <v>12157037.83486617</v>
       </c>
       <c r="K22" t="n">
-        <v>536700.4250255738</v>
+        <v>11237972.73048745</v>
       </c>
       <c r="L22" t="n">
-        <v>537197.3574703695</v>
+        <v>12449757.57550987</v>
       </c>
       <c r="M22" t="n">
-        <v>536937.3048196693</v>
+        <v>10769671.18038006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4037.325787344407</v>
+        <v>7001985.542630592</v>
       </c>
       <c r="C23" t="n">
-        <v>4082.577510965717</v>
+        <v>7239520.380344358</v>
       </c>
       <c r="D23" t="n">
-        <v>4052.627731073082</v>
+        <v>8819674.406338027</v>
       </c>
       <c r="E23" t="n">
-        <v>4136.445384658906</v>
+        <v>6716954.420690169</v>
       </c>
       <c r="F23" t="n">
-        <v>3998.566716180734</v>
+        <v>7000669.994118411</v>
       </c>
       <c r="G23" t="n">
-        <v>4044.638426070897</v>
+        <v>7238467.898709792</v>
       </c>
       <c r="H23" t="n">
-        <v>4015.491284831167</v>
+        <v>8818832.386769123</v>
       </c>
       <c r="I23" t="n">
-        <v>4100.094596459821</v>
+        <v>6716280.77762493</v>
       </c>
       <c r="J23" t="n">
-        <v>3962.984964655913</v>
+        <v>7000131.057737235</v>
       </c>
       <c r="K23" t="n">
-        <v>4009.809441493172</v>
+        <v>7238036.732060949</v>
       </c>
       <c r="L23" t="n">
-        <v>3981.399141675447</v>
+        <v>8818487.439414356</v>
       </c>
       <c r="M23" t="n">
-        <v>4066.723706121162</v>
+        <v>6716004.808512106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11910554.56716126</v>
+        <v>10459120.31085138</v>
       </c>
       <c r="C24" t="n">
-        <v>12733492.66825348</v>
+        <v>10999565.40262445</v>
       </c>
       <c r="D24" t="n">
-        <v>13857652.61658145</v>
+        <v>11658018.903674</v>
       </c>
       <c r="E24" t="n">
-        <v>13626880.97163362</v>
+        <v>10451584.33450485</v>
       </c>
       <c r="F24" t="n">
-        <v>12198621.42955166</v>
+        <v>11271565.39653636</v>
       </c>
       <c r="G24" t="n">
-        <v>13015790.99308997</v>
+        <v>11795758.97212897</v>
       </c>
       <c r="H24" t="n">
-        <v>14134297.91880121</v>
+        <v>12438286.03961941</v>
       </c>
       <c r="I24" t="n">
-        <v>13897986.45298776</v>
+        <v>11216243.61681396</v>
       </c>
       <c r="J24" t="n">
-        <v>12464298.02492674</v>
+        <v>12020929.03250832</v>
       </c>
       <c r="K24" t="n">
-        <v>13276147.415902</v>
+        <v>12530132.92391227</v>
       </c>
       <c r="L24" t="n">
-        <v>14389440.70548055</v>
+        <v>13157970.14913497</v>
       </c>
       <c r="M24" t="n">
-        <v>14148020.00657324</v>
+        <v>11921531.72817937</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2542307.29837517</v>
+        <v>4889462.333372168</v>
       </c>
       <c r="C25" t="n">
-        <v>3003339.624354232</v>
+        <v>5715555.672522258</v>
       </c>
       <c r="D25" t="n">
-        <v>2815407.716012993</v>
+        <v>5034297.431669975</v>
       </c>
       <c r="E25" t="n">
-        <v>3043128.723002479</v>
+        <v>5129567.697980776</v>
       </c>
       <c r="F25" t="n">
-        <v>2556458.423419668</v>
+        <v>4892045.214917869</v>
       </c>
       <c r="G25" t="n">
-        <v>3016564.237271388</v>
+        <v>5717857.484408722</v>
       </c>
       <c r="H25" t="n">
-        <v>2827766.478037825</v>
+        <v>5036348.75995078</v>
       </c>
       <c r="I25" t="n">
-        <v>3054678.323716183</v>
+        <v>5131395.800329356</v>
       </c>
       <c r="J25" t="n">
-        <v>2567251.840784446</v>
+        <v>4893674.382822466</v>
       </c>
       <c r="K25" t="n">
-        <v>3026650.980640105</v>
+        <v>5719309.365953228</v>
       </c>
       <c r="L25" t="n">
-        <v>2837192.815253171</v>
+        <v>5037642.647470494</v>
       </c>
       <c r="M25" t="n">
-        <v>3063487.493341038</v>
+        <v>5132548.886763993</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11670016.13702235</v>
+        <v>9913942.242355473</v>
       </c>
       <c r="C26" t="n">
-        <v>12280635.44315089</v>
+        <v>9726001.191738669</v>
       </c>
       <c r="D26" t="n">
-        <v>11878774.42037403</v>
+        <v>11336394.86723261</v>
       </c>
       <c r="E26" t="n">
-        <v>13008028.5233897</v>
+        <v>9933681.044510305</v>
       </c>
       <c r="F26" t="n">
-        <v>11833017.50093885</v>
+        <v>9913412.900712198</v>
       </c>
       <c r="G26" t="n">
-        <v>12440376.33696735</v>
+        <v>9725577.689055691</v>
       </c>
       <c r="H26" t="n">
-        <v>12035320.0623501</v>
+        <v>11336056.04158991</v>
       </c>
       <c r="I26" t="n">
-        <v>13161442.82724265</v>
+        <v>9933409.96519779</v>
       </c>
       <c r="J26" t="n">
-        <v>11983363.10193796</v>
+        <v>9913196.022222459</v>
       </c>
       <c r="K26" t="n">
-        <v>12587714.61750637</v>
+        <v>9725404.174231283</v>
       </c>
       <c r="L26" t="n">
-        <v>12179711.17700814</v>
+        <v>11335917.22010363</v>
       </c>
       <c r="M26" t="n">
-        <v>13302945.72734382</v>
+        <v>9933298.900306819</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16531608.72035426</v>
+        <v>3277828.881761803</v>
       </c>
       <c r="C27" t="n">
-        <v>17799790.764017</v>
+        <v>3961639.006634915</v>
       </c>
       <c r="D27" t="n">
-        <v>17192385.33052696</v>
+        <v>3882904.098076039</v>
       </c>
       <c r="E27" t="n">
-        <v>19432895.15739794</v>
+        <v>2638132.031802895</v>
       </c>
       <c r="F27" t="n">
-        <v>18014920.26167561</v>
+        <v>3277332.849502187</v>
       </c>
       <c r="G27" t="n">
-        <v>19253436.07309131</v>
+        <v>3961242.158440465</v>
       </c>
       <c r="H27" t="n">
-        <v>18616957.73202757</v>
+        <v>3882586.601610062</v>
       </c>
       <c r="I27" t="n">
-        <v>20828976.10950419</v>
+        <v>2637878.020300971</v>
       </c>
       <c r="J27" t="n">
-        <v>19383079.59340266</v>
+        <v>3277129.628836689</v>
       </c>
       <c r="K27" t="n">
-        <v>20594232.21687349</v>
+        <v>3961079.572736381</v>
       </c>
       <c r="L27" t="n">
-        <v>19930937.95164998</v>
+        <v>3882456.525709032</v>
       </c>
       <c r="M27" t="n">
-        <v>22116676.72347571</v>
+        <v>2637773.953709606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20720340.62407777</v>
+        <v>10980692.28807356</v>
       </c>
       <c r="C28" t="n">
-        <v>21234706.05096458</v>
+        <v>13120883.3603286</v>
       </c>
       <c r="D28" t="n">
-        <v>21739381.39557539</v>
+        <v>13784293.03939737</v>
       </c>
       <c r="E28" t="n">
-        <v>22230993.67952294</v>
+        <v>9350007.443056293</v>
       </c>
       <c r="F28" t="n">
-        <v>22713051.40963679</v>
+        <v>11269649.54110444</v>
       </c>
       <c r="G28" t="n">
-        <v>23186822.01570086</v>
+        <v>13402541.33192882</v>
       </c>
       <c r="H28" t="n">
-        <v>23651729.52325877</v>
+        <v>14058836.11500402</v>
       </c>
       <c r="I28" t="n">
-        <v>24104384.10689346</v>
+        <v>9617615.35038919</v>
       </c>
       <c r="J28" t="n">
-        <v>24548277.76960663</v>
+        <v>11530497.46782358</v>
       </c>
       <c r="K28" t="n">
-        <v>24984661.77356465</v>
+        <v>13656800.04031979</v>
       </c>
       <c r="L28" t="n">
-        <v>25412944.30605474</v>
+        <v>14306672.05376635</v>
       </c>
       <c r="M28" t="n">
-        <v>25829720.02605499</v>
+        <v>9859190.763600823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23116060.62610236</v>
+        <v>1841800.025035087</v>
       </c>
       <c r="C29" t="n">
-        <v>25405242.35622178</v>
+        <v>1864536.980736252</v>
       </c>
       <c r="D29" t="n">
-        <v>25315487.05311928</v>
+        <v>1832558.579030706</v>
       </c>
       <c r="E29" t="n">
-        <v>26232809.59629259</v>
+        <v>1844010.620529262</v>
       </c>
       <c r="F29" t="n">
-        <v>26940500.10678895</v>
+        <v>1865149.870914018</v>
       </c>
       <c r="G29" t="n">
-        <v>29153192.55048921</v>
+        <v>1886639.698571379</v>
       </c>
       <c r="H29" t="n">
-        <v>28988477.75663212</v>
+        <v>1853480.77861319</v>
       </c>
       <c r="I29" t="n">
-        <v>29832340.00860336</v>
+        <v>1863815.353984875</v>
       </c>
       <c r="J29" t="n">
-        <v>30468039.44326441</v>
+        <v>1883896.822719995</v>
       </c>
       <c r="K29" t="n">
-        <v>32610180.64199789</v>
+        <v>1904385.365424371</v>
       </c>
       <c r="L29" t="n">
-        <v>32376325.63723816</v>
+        <v>1870278.639690371</v>
       </c>
       <c r="M29" t="n">
-        <v>33152430.49150633</v>
+        <v>1879716.032111303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40743595.79396436</v>
+        <v>292511.3606983785</v>
       </c>
       <c r="C30" t="n">
-        <v>45803204.03287671</v>
+        <v>275793.7003488753</v>
       </c>
       <c r="D30" t="n">
-        <v>49131448.56106886</v>
+        <v>295922.7167148459</v>
       </c>
       <c r="E30" t="n">
-        <v>43512217.59622151</v>
+        <v>231778.5539668043</v>
       </c>
       <c r="F30" t="n">
-        <v>41063335.46200298</v>
+        <v>168971.2255072359</v>
       </c>
       <c r="G30" t="n">
-        <v>46106599.03439148</v>
+        <v>164317.1290721319</v>
       </c>
       <c r="H30" t="n">
-        <v>49419334.41367137</v>
+        <v>195331.7150586504</v>
       </c>
       <c r="I30" t="n">
-        <v>43785387.10697445</v>
+        <v>141010.1575377721</v>
       </c>
       <c r="J30" t="n">
-        <v>41322540.91072655</v>
+        <v>87066.26726398015</v>
       </c>
       <c r="K30" t="n">
-        <v>46352554.24536212</v>
+        <v>90410.10362330746</v>
       </c>
       <c r="L30" t="n">
-        <v>49652716.72141803</v>
+        <v>128641.6327016039</v>
       </c>
       <c r="M30" t="n">
-        <v>44006839.22158591</v>
+        <v>80832.2913906724</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31668842.09654931</v>
+        <v>2848816.673781242</v>
       </c>
       <c r="C31" t="n">
-        <v>39702337.02079704</v>
+        <v>2852657.870039958</v>
       </c>
       <c r="D31" t="n">
-        <v>40167624.88932563</v>
+        <v>2981571.86433253</v>
       </c>
       <c r="E31" t="n">
-        <v>39846116.9993156</v>
+        <v>2887626.323636047</v>
       </c>
       <c r="F31" t="n">
-        <v>31698487.06286554</v>
+        <v>2866836.244406292</v>
       </c>
       <c r="G31" t="n">
-        <v>39729075.46522131</v>
+        <v>2870311.795639573</v>
       </c>
       <c r="H31" t="n">
-        <v>40191741.7799506</v>
+        <v>2998867.564411173</v>
       </c>
       <c r="I31" t="n">
-        <v>39867869.36471832</v>
+        <v>2904571.067144927</v>
       </c>
       <c r="J31" t="n">
-        <v>31718106.73141947</v>
+        <v>2883437.152798332</v>
       </c>
       <c r="K31" t="n">
-        <v>39746771.5358343</v>
+        <v>2886575.845862375</v>
       </c>
       <c r="L31" t="n">
-        <v>40207702.8505609</v>
+        <v>3014801.591839252</v>
       </c>
       <c r="M31" t="n">
-        <v>39882265.54229911</v>
+        <v>2920181.768452455</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1557364.42218293</v>
+        <v>1714107.358489307</v>
       </c>
       <c r="C32" t="n">
-        <v>1666948.631584098</v>
+        <v>1776678.19389618</v>
       </c>
       <c r="D32" t="n">
-        <v>1774432.188114233</v>
+        <v>1776271.363511742</v>
       </c>
       <c r="E32" t="n">
-        <v>1879501.079364801</v>
+        <v>1747108.804119894</v>
       </c>
       <c r="F32" t="n">
-        <v>1982543.941391655</v>
+        <v>1794870.71668605</v>
       </c>
       <c r="G32" t="n">
-        <v>2083621.706141522</v>
+        <v>1855824.494157312</v>
       </c>
       <c r="H32" t="n">
-        <v>2182769.004017886</v>
+        <v>1853832.982851116</v>
       </c>
       <c r="I32" t="n">
-        <v>2279668.417749788</v>
+        <v>1823117.471293188</v>
       </c>
       <c r="J32" t="n">
-        <v>2374705.246650763</v>
+        <v>1869357.525170303</v>
       </c>
       <c r="K32" t="n">
-        <v>2467937.152682465</v>
+        <v>1928819.914870587</v>
       </c>
       <c r="L32" t="n">
-        <v>2559395.561684961</v>
+        <v>1925366.876617478</v>
       </c>
       <c r="M32" t="n">
-        <v>2648759.915936653</v>
+        <v>1893219.101058117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4921067.989172008</v>
+        <v>2836453.484129105</v>
       </c>
       <c r="C33" t="n">
-        <v>5044449.53466558</v>
+        <v>2899826.263195904</v>
       </c>
       <c r="D33" t="n">
-        <v>5138455.897837103</v>
+        <v>2941990.270130622</v>
       </c>
       <c r="E33" t="n">
-        <v>5550598.941249979</v>
+        <v>2840844.835737747</v>
       </c>
       <c r="F33" t="n">
-        <v>5379094.236343671</v>
+        <v>2951819.065484527</v>
       </c>
       <c r="G33" t="n">
-        <v>5493314.778227219</v>
+        <v>3012883.761485902</v>
       </c>
       <c r="H33" t="n">
-        <v>5578343.367434752</v>
+        <v>3052785.862450429</v>
       </c>
       <c r="I33" t="n">
-        <v>5981688.201745262</v>
+        <v>2949423.775331911</v>
       </c>
       <c r="J33" t="n">
-        <v>5801561.261113325</v>
+        <v>3058225.700230099</v>
       </c>
       <c r="K33" t="n">
-        <v>5907332.020996542</v>
+        <v>3117161.552005844</v>
       </c>
       <c r="L33" t="n">
-        <v>5984079.832674309</v>
+        <v>3154977.399864627</v>
       </c>
       <c r="M33" t="n">
-        <v>6379309.513659588</v>
+        <v>3049570.798653048</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11722584.57264891</v>
+        <v>3183313.05826353</v>
       </c>
       <c r="C34" t="n">
-        <v>12155273.90076052</v>
+        <v>2996101.929658986</v>
       </c>
       <c r="D34" t="n">
-        <v>12552668.21206375</v>
+        <v>3178454.508210681</v>
       </c>
       <c r="E34" t="n">
-        <v>12548776.79687259</v>
+        <v>2860801.062670395</v>
       </c>
       <c r="F34" t="n">
-        <v>12438015.85780899</v>
+        <v>3210957.83826945</v>
       </c>
       <c r="G34" t="n">
-        <v>12856396.25392672</v>
+        <v>3023193.740964901</v>
       </c>
       <c r="H34" t="n">
-        <v>13239767.81800189</v>
+        <v>3205004.411652782</v>
       </c>
       <c r="I34" t="n">
-        <v>13222134.11653066</v>
+        <v>2886819.897838902</v>
       </c>
       <c r="J34" t="n">
-        <v>13097905.74279595</v>
+        <v>3236456.227934116</v>
       </c>
       <c r="K34" t="n">
-        <v>13503088.05870166</v>
+        <v>3048182.095411993</v>
       </c>
       <c r="L34" t="n">
-        <v>13873525.50981943</v>
+        <v>3229492.932935317</v>
       </c>
       <c r="M34" t="n">
-        <v>13843216.3831873</v>
+        <v>2910818.583941857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6125131.882187971</v>
+        <v>1301230.058884812</v>
       </c>
       <c r="C35" t="n">
-        <v>6548532.867103036</v>
+        <v>1240868.193040914</v>
       </c>
       <c r="D35" t="n">
-        <v>6504636.416829953</v>
+        <v>1229499.688743334</v>
       </c>
       <c r="E35" t="n">
-        <v>6584565.326898213</v>
+        <v>1203439.555930699</v>
       </c>
       <c r="F35" t="n">
-        <v>6647412.681201219</v>
+        <v>1181408.965632837</v>
       </c>
       <c r="G35" t="n">
-        <v>7060366.81402166</v>
+        <v>1145011.318439334</v>
       </c>
       <c r="H35" t="n">
-        <v>7006232.473421059</v>
+        <v>1152814.18906207</v>
       </c>
       <c r="I35" t="n">
-        <v>7076128.275199001</v>
+        <v>1142091.156185688</v>
       </c>
       <c r="J35" t="n">
-        <v>7129143.207123473</v>
+        <v>1132330.245836828</v>
       </c>
       <c r="K35" t="n">
-        <v>7532461.589283957</v>
+        <v>1105748.342602527</v>
       </c>
       <c r="L35" t="n">
-        <v>7468884.235842126</v>
+        <v>1121403.808392625</v>
       </c>
       <c r="M35" t="n">
-        <v>7529525.907385028</v>
+        <v>1116962.851650131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3414079.518073749</v>
+        <v>986239.5835389966</v>
       </c>
       <c r="C36" t="n">
-        <v>3695299.321781192</v>
+        <v>936939.1630471344</v>
       </c>
       <c r="D36" t="n">
-        <v>3410476.119842543</v>
+        <v>817458.2428173287</v>
       </c>
       <c r="E36" t="n">
-        <v>3397556.586949894</v>
+        <v>848783.8472112062</v>
       </c>
       <c r="F36" t="n">
-        <v>3480347.404931626</v>
+        <v>991615.6423346208</v>
       </c>
       <c r="G36" t="n">
-        <v>3760241.703333252</v>
+        <v>942085.0169600386</v>
       </c>
       <c r="H36" t="n">
-        <v>3474119.509146604</v>
+        <v>822383.7493081624</v>
       </c>
       <c r="I36" t="n">
-        <v>3459926.966743577</v>
+        <v>853498.4416404043</v>
       </c>
       <c r="J36" t="n">
-        <v>3541470.23823994</v>
+        <v>996128.356036895</v>
       </c>
       <c r="K36" t="n">
-        <v>3820141.943864004</v>
+        <v>946404.4945449126</v>
       </c>
       <c r="L36" t="n">
-        <v>3532821.611477877</v>
+        <v>826518.2652196918</v>
       </c>
       <c r="M36" t="n">
-        <v>3517454.896307434</v>
+        <v>857455.9160078025</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3951693.289692844</v>
+        <v>4000116.561106146</v>
       </c>
       <c r="C37" t="n">
-        <v>5980194.447830939</v>
+        <v>4419524.241503475</v>
       </c>
       <c r="D37" t="n">
-        <v>5683325.893813329</v>
+        <v>4027456.230487405</v>
       </c>
       <c r="E37" t="n">
-        <v>5625810.728367032</v>
+        <v>3478152.054173415</v>
       </c>
       <c r="F37" t="n">
-        <v>3954648.189733303</v>
+        <v>4011133.744395501</v>
       </c>
       <c r="G37" t="n">
-        <v>5982837.120669396</v>
+        <v>4429696.617763453</v>
       </c>
       <c r="H37" t="n">
-        <v>5685689.330692917</v>
+        <v>4036848.580242949</v>
       </c>
       <c r="I37" t="n">
-        <v>5627924.43453698</v>
+        <v>3486824.190523457</v>
       </c>
       <c r="J37" t="n">
-        <v>3956538.552793751</v>
+        <v>4019140.893919436</v>
       </c>
       <c r="K37" t="n">
-        <v>5984527.739995351</v>
+        <v>4437089.772219371</v>
       </c>
       <c r="L37" t="n">
-        <v>5687201.312049883</v>
+        <v>4043674.821297356</v>
       </c>
       <c r="M37" t="n">
-        <v>5629276.653566252</v>
+        <v>3493126.989580438</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1461222.973395901</v>
+        <v>4358844.605380015</v>
       </c>
       <c r="C38" t="n">
-        <v>2625540.783180027</v>
+        <v>4278625.448504421</v>
       </c>
       <c r="D38" t="n">
-        <v>2028026.520565038</v>
+        <v>4471399.67483577</v>
       </c>
       <c r="E38" t="n">
-        <v>1287672.491516338</v>
+        <v>4499847.348882858</v>
       </c>
       <c r="F38" t="n">
-        <v>1475548.49419562</v>
+        <v>4660180.560192335</v>
       </c>
       <c r="G38" t="n">
-        <v>2639121.182604638</v>
+        <v>4573934.599607326</v>
       </c>
       <c r="H38" t="n">
-        <v>2040900.555031944</v>
+        <v>4760802.559995736</v>
       </c>
       <c r="I38" t="n">
-        <v>1299876.901583595</v>
+        <v>4783462.095077184</v>
       </c>
       <c r="J38" t="n">
-        <v>1487118.10941396</v>
+        <v>4938122.931825607</v>
       </c>
       <c r="K38" t="n">
-        <v>2650089.020915773</v>
+        <v>4846318.04576353</v>
       </c>
       <c r="L38" t="n">
-        <v>2051297.9169968</v>
+        <v>5027738.260745323</v>
       </c>
       <c r="M38" t="n">
-        <v>1309733.459709409</v>
+        <v>5045059.006857978</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4007876.678962316</v>
+        <v>5175860.882992965</v>
       </c>
       <c r="C39" t="n">
-        <v>4311783.401876814</v>
+        <v>5142818.797950936</v>
       </c>
       <c r="D39" t="n">
-        <v>4264229.194576867</v>
+        <v>4837206.054214434</v>
       </c>
       <c r="E39" t="n">
-        <v>4531795.327489053</v>
+        <v>4767227.110202121</v>
       </c>
       <c r="F39" t="n">
-        <v>4043573.236344019</v>
+        <v>5272937.867526622</v>
       </c>
       <c r="G39" t="n">
-        <v>4346765.979053404</v>
+        <v>5236763.679660992</v>
       </c>
       <c r="H39" t="n">
-        <v>4298512.072133665</v>
+        <v>4928119.887621121</v>
       </c>
       <c r="I39" t="n">
-        <v>4565392.500380046</v>
+        <v>4855207.689391185</v>
       </c>
       <c r="J39" t="n">
-        <v>4076498.419604881</v>
+        <v>5358079.83134435</v>
       </c>
       <c r="K39" t="n">
-        <v>4379032.613400248</v>
+        <v>5319158.613515218</v>
       </c>
       <c r="L39" t="n">
-        <v>4330133.329449808</v>
+        <v>5007856.421997705</v>
       </c>
       <c r="M39" t="n">
-        <v>4596381.289093039</v>
+        <v>4932371.595191956</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11416128.37193484</v>
+        <v>4879636.054247957</v>
       </c>
       <c r="C40" t="n">
-        <v>12988138.33255223</v>
+        <v>4642537.785683719</v>
       </c>
       <c r="D40" t="n">
-        <v>12408585.80531619</v>
+        <v>4952313.831997358</v>
       </c>
       <c r="E40" t="n">
-        <v>13384362.7517203</v>
+        <v>4417924.00881147</v>
       </c>
       <c r="F40" t="n">
-        <v>11754961.28149137</v>
+        <v>4670758.536626758</v>
       </c>
       <c r="G40" t="n">
-        <v>13317400.62063696</v>
+        <v>4443077.645174589</v>
       </c>
       <c r="H40" t="n">
-        <v>12728547.80220923</v>
+        <v>4761846.480101349</v>
       </c>
       <c r="I40" t="n">
-        <v>13695287.1519949</v>
+        <v>4236043.999874959</v>
       </c>
       <c r="J40" t="n">
-        <v>12057103.35969084</v>
+        <v>4497078.704773966</v>
       </c>
       <c r="K40" t="n">
-        <v>13611008.44085972</v>
+        <v>4277228.28015205</v>
       </c>
       <c r="L40" t="n">
-        <v>13013862.42177391</v>
+        <v>4603474.54027996</v>
       </c>
       <c r="M40" t="n">
-        <v>13972542.81935272</v>
+        <v>4084812.360734339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6912456.754225458</v>
+        <v>3221843.629221892</v>
       </c>
       <c r="C41" t="n">
-        <v>6741241.435918367</v>
+        <v>3128405.387000968</v>
       </c>
       <c r="D41" t="n">
-        <v>6883802.443332328</v>
+        <v>3288111.985723113</v>
       </c>
       <c r="E41" t="n">
-        <v>9238457.286921708</v>
+        <v>3061663.469084511</v>
       </c>
       <c r="F41" t="n">
-        <v>6911988.223386626</v>
+        <v>3340322.124751783</v>
       </c>
       <c r="G41" t="n">
-        <v>6740866.611247301</v>
+        <v>3244514.307299999</v>
       </c>
       <c r="H41" t="n">
-        <v>6883502.583595475</v>
+        <v>3401898.722402304</v>
       </c>
       <c r="I41" t="n">
-        <v>9238217.399132226</v>
+        <v>3173174.465920537</v>
       </c>
       <c r="J41" t="n">
-        <v>6911796.313155039</v>
+        <v>3449602.8966437</v>
       </c>
       <c r="K41" t="n">
-        <v>6740713.083062031</v>
+        <v>3351609.458846836</v>
       </c>
       <c r="L41" t="n">
-        <v>6883379.761047259</v>
+        <v>3506851.966109109</v>
       </c>
       <c r="M41" t="n">
-        <v>9238119.141093653</v>
+        <v>3276028.640040292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9707187.214145157</v>
+        <v>3807793.968146554</v>
       </c>
       <c r="C42" t="n">
-        <v>10546304.71909965</v>
+        <v>4106942.5906482</v>
       </c>
       <c r="D42" t="n">
-        <v>11132121.25312785</v>
+        <v>3944737.162910166</v>
       </c>
       <c r="E42" t="n">
-        <v>11793391.16407144</v>
+        <v>3580221.808056764</v>
       </c>
       <c r="F42" t="n">
-        <v>10569890.36877361</v>
+        <v>3856051.911246109</v>
       </c>
       <c r="G42" t="n">
-        <v>11391753.65040915</v>
+        <v>4153502.066833453</v>
       </c>
       <c r="H42" t="n">
-        <v>11960661.04878931</v>
+        <v>3989657.950731003</v>
       </c>
       <c r="I42" t="n">
-        <v>12605360.0099383</v>
+        <v>3623561.582121572</v>
       </c>
       <c r="J42" t="n">
-        <v>11365619.68691942</v>
+        <v>3897866.316271243</v>
       </c>
       <c r="K42" t="n">
-        <v>12171568.23440442</v>
+        <v>4193844.78908649</v>
       </c>
       <c r="L42" t="n">
-        <v>12724879.19627284</v>
+        <v>4028580.78695951</v>
       </c>
       <c r="M42" t="n">
-        <v>13354293.65253699</v>
+        <v>3661114.506055878</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5150244.897836816</v>
+        <v>2774837.701183711</v>
       </c>
       <c r="C43" t="n">
-        <v>4913670.323964512</v>
+        <v>2999106.15727768</v>
       </c>
       <c r="D43" t="n">
-        <v>5980389.000353909</v>
+        <v>2964012.858888856</v>
       </c>
       <c r="E43" t="n">
-        <v>5059400.602969002</v>
+        <v>2783595.770738678</v>
       </c>
       <c r="F43" t="n">
-        <v>5154393.515194007</v>
+        <v>2775511.418512893</v>
       </c>
       <c r="G43" t="n">
-        <v>4917380.071044725</v>
+        <v>2999699.061541455</v>
       </c>
       <c r="H43" t="n">
-        <v>5983706.303979247</v>
+        <v>2964534.643694999</v>
       </c>
       <c r="I43" t="n">
-        <v>5062366.978601824</v>
+        <v>2784054.966937046</v>
       </c>
       <c r="J43" t="n">
-        <v>5157046.086495529</v>
+        <v>2775915.533669397</v>
       </c>
       <c r="K43" t="n">
-        <v>4919752.034471002</v>
+        <v>3000054.702681988</v>
       </c>
       <c r="L43" t="n">
-        <v>5985827.344228898</v>
+        <v>2964847.625326111</v>
       </c>
       <c r="M43" t="n">
-        <v>5064263.640114731</v>
+        <v>2784330.406109429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12991435.19572128</v>
+        <v>5603074.118687153</v>
       </c>
       <c r="C44" t="n">
-        <v>13027049.99653822</v>
+        <v>5434774.753593258</v>
       </c>
       <c r="D44" t="n">
-        <v>13274379.98881253</v>
+        <v>5444702.83026717</v>
       </c>
       <c r="E44" t="n">
-        <v>14348464.94960557</v>
+        <v>5159809.972317344</v>
       </c>
       <c r="F44" t="n">
-        <v>13237877.14131924</v>
+        <v>5606988.976857862</v>
       </c>
       <c r="G44" t="n">
-        <v>13263768.25566734</v>
+        <v>5438322.535935567</v>
       </c>
       <c r="H44" t="n">
-        <v>13501758.22212892</v>
+        <v>5447917.95556662</v>
       </c>
       <c r="I44" t="n">
-        <v>14566871.67993676</v>
+        <v>5162723.632089501</v>
       </c>
       <c r="J44" t="n">
-        <v>13447666.35094683</v>
+        <v>5609629.437952595</v>
       </c>
       <c r="K44" t="n">
-        <v>13465279.96004307</v>
+        <v>5440715.414767688</v>
       </c>
       <c r="L44" t="n">
-        <v>13695319.02095406</v>
+        <v>5450086.466633355</v>
       </c>
       <c r="M44" t="n">
-        <v>14752795.28649794</v>
+        <v>5164688.813185774</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3827798.112621251</v>
+        <v>2754814.506026716</v>
       </c>
       <c r="C45" t="n">
-        <v>4399732.04162832</v>
+        <v>2745645.875773318</v>
       </c>
       <c r="D45" t="n">
-        <v>4862006.209829546</v>
+        <v>2782285.828555697</v>
       </c>
       <c r="E45" t="n">
-        <v>5008944.931415022</v>
+        <v>2909547.365184897</v>
       </c>
       <c r="F45" t="n">
-        <v>3827450.707991143</v>
+        <v>2755760.50966495</v>
       </c>
       <c r="G45" t="n">
-        <v>4399429.347847516</v>
+        <v>2746488.008352106</v>
       </c>
       <c r="H45" t="n">
-        <v>4861742.472628033</v>
+        <v>2783035.49510199</v>
       </c>
       <c r="I45" t="n">
-        <v>5008715.137095241</v>
+        <v>2910214.718455377</v>
       </c>
       <c r="J45" t="n">
-        <v>3827250.488116582</v>
+        <v>2756354.587645115</v>
       </c>
       <c r="K45" t="n">
-        <v>4399254.896197853</v>
+        <v>2747016.856657987</v>
       </c>
       <c r="L45" t="n">
-        <v>4861590.472842112</v>
+        <v>2783506.275942169</v>
       </c>
       <c r="M45" t="n">
-        <v>5008582.699626382</v>
+        <v>2910633.807628991</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9234919.243714096</v>
+        <v>2091111.479754094</v>
       </c>
       <c r="C46" t="n">
-        <v>11153118.18252572</v>
+        <v>2031139.660691301</v>
       </c>
       <c r="D46" t="n">
-        <v>13659059.5396437</v>
+        <v>1999434.333791133</v>
       </c>
       <c r="E46" t="n">
-        <v>13893477.76346936</v>
+        <v>2250972.987511816</v>
       </c>
       <c r="F46" t="n">
-        <v>9554254.274255134</v>
+        <v>2091121.887390991</v>
       </c>
       <c r="G46" t="n">
-        <v>11464637.03433401</v>
+        <v>2031147.986800818</v>
       </c>
       <c r="H46" t="n">
-        <v>13962953.52480262</v>
+        <v>1999440.994678747</v>
       </c>
       <c r="I46" t="n">
-        <v>14189933.5114271</v>
+        <v>2250978.316221907</v>
       </c>
       <c r="J46" t="n">
-        <v>9843453.84643892</v>
+        <v>2091126.150359064</v>
       </c>
       <c r="K46" t="n">
-        <v>11746758.03595887</v>
+        <v>2031151.397175277</v>
       </c>
       <c r="L46" t="n">
-        <v>14238169.21394352</v>
+        <v>1999443.722978314</v>
       </c>
       <c r="M46" t="n">
-        <v>14458412.90542138</v>
+        <v>2250980.498861561</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2336293.692509447</v>
+        <v>1870397.532370535</v>
       </c>
       <c r="C47" t="n">
-        <v>2385342.668825667</v>
+        <v>1878705.746997898</v>
       </c>
       <c r="D47" t="n">
-        <v>2476982.159364766</v>
+        <v>1886864.045046416</v>
       </c>
       <c r="E47" t="n">
-        <v>2397261.970632672</v>
+        <v>1894753.321819369</v>
       </c>
       <c r="F47" t="n">
-        <v>2499475.632438496</v>
+        <v>1902476.007792405</v>
       </c>
       <c r="G47" t="n">
-        <v>2545260.565186486</v>
+        <v>1910105.881863357</v>
       </c>
       <c r="H47" t="n">
-        <v>2633701.301125117</v>
+        <v>1917600.18373762</v>
       </c>
       <c r="I47" t="n">
-        <v>2550846.340819012</v>
+        <v>1924839.505388095</v>
       </c>
       <c r="J47" t="n">
-        <v>2649987.934258047</v>
+        <v>1931925.980374359</v>
       </c>
       <c r="K47" t="n">
-        <v>2692762.247626788</v>
+        <v>1938933.096956845</v>
       </c>
       <c r="L47" t="n">
-        <v>2778252.58404154</v>
+        <v>1945817.810349451</v>
       </c>
       <c r="M47" t="n">
-        <v>2692506.239520442</v>
+        <v>1952460.434049516</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>298957.0789867516</v>
+        <v>4968830.147487409</v>
       </c>
       <c r="C48" t="n">
-        <v>200839.3770143944</v>
+        <v>4837747.337523269</v>
       </c>
       <c r="D48" t="n">
-        <v>163153.0884254903</v>
+        <v>4905876.407947293</v>
       </c>
       <c r="E48" t="n">
-        <v>152239.9952682174</v>
+        <v>4747517.678402818</v>
       </c>
       <c r="F48" t="n">
-        <v>47672.34436520476</v>
+        <v>5088339.289008128</v>
       </c>
       <c r="G48" t="n">
-        <v>-39114.62225719554</v>
+        <v>4954866.047736289</v>
       </c>
       <c r="H48" t="n">
-        <v>-65981.09218101058</v>
+        <v>5020652.500448829</v>
       </c>
       <c r="I48" t="n">
-        <v>-66562.24550122308</v>
+        <v>4859998.010417752</v>
       </c>
       <c r="J48" t="n">
-        <v>-161263.8363434448</v>
+        <v>5198569.78051942</v>
       </c>
       <c r="K48" t="n">
-        <v>-238629.6155936557</v>
+        <v>5062891.700231764</v>
       </c>
       <c r="L48" t="n">
-        <v>-256499.7109814347</v>
+        <v>5126517.415292992</v>
       </c>
       <c r="M48" t="n">
-        <v>-248490.1472725442</v>
+        <v>4963745.406856124</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>749316.7557736551</v>
+        <v>762448.564410519</v>
       </c>
       <c r="C49" t="n">
-        <v>724388.4750483516</v>
+        <v>872999.3876474167</v>
       </c>
       <c r="D49" t="n">
-        <v>770217.3380808572</v>
+        <v>893177.4223784561</v>
       </c>
       <c r="E49" t="n">
-        <v>848198.701833754</v>
+        <v>810343.3212276477</v>
       </c>
       <c r="F49" t="n">
-        <v>749480.4510996647</v>
+        <v>782270.5038604037</v>
       </c>
       <c r="G49" t="n">
-        <v>724519.4315414492</v>
+        <v>892424.874459781</v>
       </c>
       <c r="H49" t="n">
-        <v>770322.1034611675</v>
+        <v>912214.3858830305</v>
       </c>
       <c r="I49" t="n">
-        <v>848282.5142866684</v>
+        <v>828999.5321620282</v>
       </c>
       <c r="J49" t="n">
-        <v>749547.5011809292</v>
+        <v>800553.5775420057</v>
       </c>
       <c r="K49" t="n">
-        <v>724573.0717016074</v>
+        <v>910342.273894351</v>
       </c>
       <c r="L49" t="n">
-        <v>770365.0156654116</v>
+        <v>929773.424810986</v>
       </c>
       <c r="M49" t="n">
-        <v>848316.8441109577</v>
+        <v>846207.3780438689</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1773283.70734464</v>
+        <v>2880268.66613616</v>
       </c>
       <c r="C50" t="n">
-        <v>1815466.323800844</v>
+        <v>2693787.287909603</v>
       </c>
       <c r="D50" t="n">
-        <v>1888643.713330253</v>
+        <v>2915411.3994925</v>
       </c>
       <c r="E50" t="n">
-        <v>1875856.894639239</v>
+        <v>2697779.815138018</v>
       </c>
       <c r="F50" t="n">
-        <v>1842275.0141926</v>
+        <v>3006810.400645622</v>
       </c>
       <c r="G50" t="n">
-        <v>1883077.788199928</v>
+        <v>2817797.673317154</v>
       </c>
       <c r="H50" t="n">
-        <v>1954902.932455681</v>
+        <v>3036941.073070504</v>
       </c>
       <c r="I50" t="n">
-        <v>1940790.913716202</v>
+        <v>2816878.401207543</v>
       </c>
       <c r="J50" t="n">
-        <v>1905910.337535389</v>
+        <v>3123526.530839585</v>
       </c>
       <c r="K50" t="n">
-        <v>1945440.390030283</v>
+        <v>2932179.006438116</v>
       </c>
       <c r="L50" t="n">
-        <v>2016018.267504767</v>
+        <v>3149034.314551237</v>
       </c>
       <c r="M50" t="n">
-        <v>2000683.92761454</v>
+        <v>2926729.322182298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2860769.191434005</v>
+        <v>3087737.116123734</v>
       </c>
       <c r="C51" t="n">
-        <v>3076290.87011927</v>
+        <v>3057408.253482909</v>
       </c>
       <c r="D51" t="n">
-        <v>3033153.144612829</v>
+        <v>3201400.625238136</v>
       </c>
       <c r="E51" t="n">
-        <v>3020755.113701703</v>
+        <v>3197458.573228742</v>
       </c>
       <c r="F51" t="n">
-        <v>2996663.001859128</v>
+        <v>3217814.552482128</v>
       </c>
       <c r="G51" t="n">
-        <v>3209466.232408335</v>
+        <v>3184869.59544124</v>
       </c>
       <c r="H51" t="n">
-        <v>3163664.439169514</v>
+        <v>3326298.487224407</v>
       </c>
       <c r="I51" t="n">
-        <v>3148655.633092746</v>
+        <v>3319844.511498882</v>
       </c>
       <c r="J51" t="n">
-        <v>3122004.972575645</v>
+        <v>3337739.086401763</v>
       </c>
       <c r="K51" t="n">
-        <v>3332300.836191814</v>
+        <v>3302382.22833945</v>
       </c>
       <c r="L51" t="n">
-        <v>3284041.833911212</v>
+        <v>3441447.726828066</v>
       </c>
       <c r="M51" t="n">
-        <v>3266624.973314995</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2929056.888559559</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3290963.086671924</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3275568.356035769</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3312108.21413274</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3008041.23092061</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3368367.485062848</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3351424.414479265</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3386446.904468167</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3080892.905449718</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3439761.888942543</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3421390.697866484</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3455013.634421814</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1609321.434523949</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1614792.998519464</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1621695.617463896</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1625910.105762283</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1629369.445298031</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1630831.407138729</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1634526.344359308</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1636174.687278613</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1637581.110511094</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1637400.73930918</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1639781.810095669</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1640379.059867702</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>725731.8820851342</v>
-      </c>
-      <c r="C54" t="n">
-        <v>941726.7022604727</v>
-      </c>
-      <c r="D54" t="n">
-        <v>818571.682369665</v>
-      </c>
-      <c r="E54" t="n">
-        <v>714281.9220111894</v>
-      </c>
-      <c r="F54" t="n">
-        <v>730637.2114186351</v>
-      </c>
-      <c r="G54" t="n">
-        <v>946376.9000709741</v>
-      </c>
-      <c r="H54" t="n">
-        <v>822980.0183256444</v>
-      </c>
-      <c r="I54" t="n">
-        <v>718460.9756112093</v>
-      </c>
-      <c r="J54" t="n">
-        <v>734598.9078878325</v>
-      </c>
-      <c r="K54" t="n">
-        <v>950132.5443905339</v>
-      </c>
-      <c r="L54" t="n">
-        <v>826540.3274923634</v>
-      </c>
-      <c r="M54" t="n">
-        <v>721836.1092192048</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3408577.269368821</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3941808.081433897</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4725166.764618321</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3968071.308908389</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3418402.588536662</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3950794.44696066</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4733385.812162844</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3975588.557381972</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3425277.962393241</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3957082.75389023</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4739137.17999612</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3980848.833689113</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4455850.932220979</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4572091.510590594</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4478237.436488236</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4587243.451591576</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4568501.267605255</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4682488.824921859</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4586426.790474458</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4693269.004720824</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4672406.296170217</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4784315.739683856</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4686217.153974184</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4791063.548242867</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4725090.725333744</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5230468.488474572</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5003997.665726217</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4883887.026457787</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4809760.429307389</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5311435.321720523</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5081423.566351996</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4957926.850511457</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4880562.260498142</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5379140.767594221</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5146168.041514031</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5019839.847463387</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4735296.768336996</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4965273.125337304</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4736267.916433252</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5082913.796929798</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4605447.831170459</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4838023.068593643</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4611564.724442568</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4960706.495097375</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4485686.465140016</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4720658.683827622</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4496549.346211118</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4847993.108867846</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3081151.636072623</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3213436.93411796</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3183202.863788448</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3446147.659468574</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3260239.90072619</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3384586.62649143</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3346765.882594826</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3602460.304557515</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3409623.564545854</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3527348.454899419</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3483199.406376892</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3732846.042952484</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3546623.671046655</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3769209.477718611</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4008343.383660143</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3888901.77838264</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3574553.258331059</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3795605.682581155</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4033290.391435459</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3912479.152485566</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3596836.194007993</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3816665.24673002</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4053193.749259144</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3931289.781701697</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2912193.12101229</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2844473.267917614</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3164044.888678206</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3013313.441573708</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2913068.696233403</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2845240.274519182</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3164716.788833283</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3013902.028187527</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2913584.299927417</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2845691.944949735</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3165112.453527319</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3014248.631683166</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5581527.817452881</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6085284.005078874</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5915499.203544483</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5859977.387921289</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5584504.468623009</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6087931.11313074</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5917853.251982733</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5862070.821185458</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5586366.139249799</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6089586.679411248</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5919325.53159531</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5863380.1056781</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3017059.099198524</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2863441.982270272</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2969430.501270412</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2890723.466971588</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3018888.171469958</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2865076.809850306</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2970891.712649635</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2892029.499926284</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3020055.505712633</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2866120.174973078</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2971824.273984358</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2892863.024666608</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2357717.685817193</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2208869.515049445</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2182310.98369466</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2138527.372736845</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2400434.873623506</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2250728.120144633</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2223328.262932691</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2178720.236122157</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2439819.891282417</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2289321.529156631</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2261145.974024421</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2215777.840226862</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2341798.071319139</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2372664.236310394</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2403029.6876864</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2432812.594532389</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2461950.328571168</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2490412.018778883</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2518421.113476801</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2545894.818815509</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2572769.562853318</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2599013.549786399</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2624849.321662644</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2650193.196495519</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5018450.031002698</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5371702.324625817</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5366598.552669272</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5328344.897491742</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5179589.086941135</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5529618.344764467</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5521356.002818153</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5480006.954042785</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5328217.66265858</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5675274.114059417</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5664098.426517592</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5619894.303663178</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>870469.3038508765</v>
-      </c>
-      <c r="C67" t="n">
-        <v>848081.7801846743</v>
-      </c>
-      <c r="D67" t="n">
-        <v>951469.9365776452</v>
-      </c>
-      <c r="E67" t="n">
-        <v>989094.3235019195</v>
-      </c>
-      <c r="F67" t="n">
-        <v>911272.6968964001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>888068.7598355165</v>
-      </c>
-      <c r="H67" t="n">
-        <v>990656.838015301</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1027497.155065924</v>
-      </c>
-      <c r="J67" t="n">
-        <v>948907.1466239337</v>
-      </c>
-      <c r="K67" t="n">
-        <v>924950.2018701667</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1026800.338887591</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1062917.479848179</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2830537.048434586</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3074147.712523483</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2927721.743151794</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3133822.712426995</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3010029.399188648</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3250049.441252398</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3100104.677799614</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3302757.244068752</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3175584.510773937</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3412292.735773973</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3259102.405898475</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3458574.331087023</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2766896.242799737</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2780518.336940633</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2754625.603315312</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2875894.74229356</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2863030.092571843</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2874722.513719153</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2846938.840989203</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2966354.9972552</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2951674.559323541</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2961587.640166399</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2932060.343426934</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3049767.875053254</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>43550345.77068701</v>
-      </c>
-      <c r="C70" t="n">
-        <v>49954782.59477396</v>
-      </c>
-      <c r="D70" t="n">
-        <v>47195505.22641161</v>
-      </c>
-      <c r="E70" t="n">
-        <v>58406357.36059716</v>
-      </c>
-      <c r="F70" t="n">
-        <v>56523072.3937949</v>
-      </c>
-      <c r="G70" t="n">
-        <v>61492416.51064996</v>
-      </c>
-      <c r="H70" t="n">
-        <v>57456801.88702691</v>
-      </c>
-      <c r="I70" t="n">
-        <v>67532510.08176018</v>
-      </c>
-      <c r="J70" t="n">
-        <v>64639655.14592022</v>
-      </c>
-      <c r="K70" t="n">
-        <v>68711111.79057102</v>
-      </c>
-      <c r="L70" t="n">
-        <v>63876937.44601074</v>
-      </c>
-      <c r="M70" t="n">
-        <v>73242425.65478314</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>27950835.26754845</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32347229.22837119</v>
-      </c>
-      <c r="D71" t="n">
-        <v>35201044.97715156</v>
-      </c>
-      <c r="E71" t="n">
-        <v>40302805.97282168</v>
-      </c>
-      <c r="F71" t="n">
-        <v>35941048.41980287</v>
-      </c>
-      <c r="G71" t="n">
-        <v>40177585.69742721</v>
-      </c>
-      <c r="H71" t="n">
-        <v>42874742.94542012</v>
-      </c>
-      <c r="I71" t="n">
-        <v>47822979.63808367</v>
-      </c>
-      <c r="J71" t="n">
-        <v>43310769.27532155</v>
-      </c>
-      <c r="K71" t="n">
-        <v>47399863.78644986</v>
-      </c>
-      <c r="L71" t="n">
-        <v>49952528.09058159</v>
-      </c>
-      <c r="M71" t="n">
-        <v>54759162.64621364</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1473351.324262969</v>
-      </c>
-      <c r="C72" t="n">
-        <v>724848.7760198128</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1452856.812523411</v>
-      </c>
-      <c r="E72" t="n">
-        <v>784248.9839334352</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1440360.952019694</v>
-      </c>
-      <c r="G72" t="n">
-        <v>692518.3684434704</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1421173.167175471</v>
-      </c>
-      <c r="I72" t="n">
-        <v>753199.1624870588</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1409932.274976238</v>
-      </c>
-      <c r="K72" t="n">
-        <v>662698.4099546908</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1391949.749969307</v>
-      </c>
-      <c r="M72" t="n">
-        <v>724560.3528949245</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11336838.57201994</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12094678.14985522</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12691008.45652927</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12751601.279841</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12483985.62994866</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13218879.54330551</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13792723.15326357</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13831279.0671769</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13542067.29838962</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14255797.06649847</v>
-      </c>
-      <c r="L73" t="n">
-        <v>14808899.86435704</v>
-      </c>
-      <c r="M73" t="n">
-        <v>14827129.83165142</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>18212693.76558683</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19202534.77276919</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20963893.22841822</v>
-      </c>
-      <c r="E74" t="n">
-        <v>21165545.0165878</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18232351.46775898</v>
-      </c>
-      <c r="G74" t="n">
-        <v>19220376.66069701</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20980087.03184658</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21180242.97178946</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18245691.7486921</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19232484.67796424</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20991076.61166715</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21190217.42606776</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>31753334.4826691</v>
-      </c>
-      <c r="C75" t="n">
-        <v>34428795.16374193</v>
-      </c>
-      <c r="D75" t="n">
-        <v>33059846.32107598</v>
-      </c>
-      <c r="E75" t="n">
-        <v>36207638.27587821</v>
-      </c>
-      <c r="F75" t="n">
-        <v>33895092.4653545</v>
-      </c>
-      <c r="G75" t="n">
-        <v>36527689.12242789</v>
-      </c>
-      <c r="H75" t="n">
-        <v>35116734.11391839</v>
-      </c>
-      <c r="I75" t="n">
-        <v>38223360.59230857</v>
-      </c>
-      <c r="J75" t="n">
-        <v>35870473.16968574</v>
-      </c>
-      <c r="K75" t="n">
-        <v>38463535.5905835</v>
-      </c>
-      <c r="L75" t="n">
-        <v>37013837.56342246</v>
-      </c>
-      <c r="M75" t="n">
-        <v>40082496.4056715</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>20720340.62407777</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21234706.05096458</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21739381.39557539</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22230993.67952294</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22713051.40963679</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23186822.01570086</v>
-      </c>
-      <c r="H76" t="n">
-        <v>23651729.52325877</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24104384.10689346</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24548277.76960663</v>
-      </c>
-      <c r="K76" t="n">
-        <v>24984661.77356465</v>
-      </c>
-      <c r="L76" t="n">
-        <v>25412944.30605474</v>
-      </c>
-      <c r="M76" t="n">
-        <v>25829720.02605499</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>23065637.29480751</v>
-      </c>
-      <c r="C77" t="n">
-        <v>25331491.54953485</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25251374.51318168</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26184853.83607025</v>
-      </c>
-      <c r="F77" t="n">
-        <v>26843149.02601962</v>
-      </c>
-      <c r="G77" t="n">
-        <v>29033447.03418647</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28879284.9964523</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29740200.33583064</v>
-      </c>
-      <c r="J77" t="n">
-        <v>30327382.93742606</v>
-      </c>
-      <c r="K77" t="n">
-        <v>32447990.72218222</v>
-      </c>
-      <c r="L77" t="n">
-        <v>32225532.37641805</v>
-      </c>
-      <c r="M77" t="n">
-        <v>33019517.44262105</v>
+        <v>3432677.889956041</v>
       </c>
     </row>
   </sheetData>
